--- a/자유수강권/배드민턴1(수강).xlsx
+++ b/자유수강권/배드민턴1(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="87">
   <si>
     <t>주야</t>
   </si>
@@ -118,18 +118,27 @@
     <t>원승현</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>김준혁</t>
+  </si>
+  <si>
     <t>이호령</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>조휘</t>
   </si>
   <si>
     <t>3학년</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>류세훈</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
@@ -145,9 +154,6 @@
     <t>김민엽</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>백승현</t>
   </si>
   <si>
@@ -166,6 +172,12 @@
     <t>고규한</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>박성경</t>
+  </si>
+  <si>
     <t>이건우</t>
   </si>
   <si>
@@ -196,7 +208,7 @@
     <t>홍진오</t>
   </si>
   <si>
-    <t>7</t>
+    <t>강민석</t>
   </si>
   <si>
     <t>문석호</t>
@@ -223,6 +235,12 @@
     <t>이찬민</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>조세은</t>
+  </si>
+  <si>
     <t>홍승표</t>
   </si>
   <si>
@@ -248,9 +266,6 @@
   </si>
   <si>
     <t>고유건</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>이태인</t>
@@ -628,9 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -936,10 +953,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -962,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>36</v>
@@ -982,16 +999,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -1008,16 +1025,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -1034,16 +1051,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -1060,16 +1077,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
@@ -1086,16 +1103,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
@@ -1112,16 +1129,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1138,16 +1155,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1164,16 +1181,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1190,16 +1207,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>13</v>
@@ -1216,16 +1233,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1242,16 +1259,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1268,13 +1285,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>58</v>
@@ -1294,16 +1311,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1320,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>61</v>
@@ -1346,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>62</v>
@@ -1372,16 +1389,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1398,16 +1415,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1424,16 +1441,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1450,16 +1467,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
@@ -1476,16 +1493,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>13</v>
@@ -1502,16 +1519,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -1528,16 +1545,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
@@ -1554,16 +1571,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
@@ -1580,16 +1597,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -1606,13 +1623,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>77</v>
@@ -1632,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>79</v>
@@ -1658,13 +1675,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>80</v>
@@ -1684,13 +1701,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>81</v>
@@ -1702,6 +1719,136 @@
         <v>13</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13.5">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.5">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.5">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="13.5">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.5">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
